--- a/3. Requirement/SubmitTeamWork/1 - Deadline 271113/Question - Tong hop.xlsx
+++ b/3. Requirement/SubmitTeamWork/1 - Deadline 271113/Question - Tong hop.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Đăng tin" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -237,6 +237,30 @@
   </si>
   <si>
     <t>Viết tiếng việt trên android ntn? &lt; nếu như điện thoại không có chức năng viết tiếng việt thì hệ thống có hỗ trợ hay không?</t>
+  </si>
+  <si>
+    <t>Mô tả tổng quan về Tạo Danh Mục</t>
+  </si>
+  <si>
+    <t>Kèm theo những tính năng nào? (Chỉnh sửa, Tìm kiếm)</t>
+  </si>
+  <si>
+    <t>Khi tạo mới danh mục sẽ cập nhật lên mạng nội bộ hay cập hật trực tiếp lên website?</t>
+  </si>
+  <si>
+    <t>Có những ai tham gia thực hiện chức năng Tạo Danh Mục?</t>
+  </si>
+  <si>
+    <t>Danh mục hiển thị ở đâu trên trang web?</t>
+  </si>
+  <si>
+    <t>Danh mục được tạo hiển thị như thế nào? Theo cách hiển thị trên trang web cũ hay hiển thị kiểu khác?</t>
+  </si>
+  <si>
+    <t>Có cần đảm bảo thuộc tính chất lượng nào không? Modifiability, Usability?</t>
+  </si>
+  <si>
+    <t>Tại sao lại đảm bảo thuộc tính chất lượng đó?</t>
   </si>
 </sst>
 </file>
@@ -378,35 +402,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -414,12 +426,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -430,9 +436,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -443,6 +446,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,6 +477,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -500,7 +528,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,7 +563,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -746,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H10" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,174 +786,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="16"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
+      <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="17"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="16"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
+      <c r="B15" s="1">
         <v>8</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
+      <c r="B16" s="1">
         <v>9</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="10" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
+      <c r="B20" s="1">
         <v>14</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -940,150 +968,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="69.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="93.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="16"/>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="24" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="24" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="24" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="24" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="24" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="24" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
+      <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
-        <v>9</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
-        <v>14</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="24" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1098,7 +1093,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="A1:E19"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,172 +1104,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+      <c r="B4" s="19">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="20" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
+      <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="20" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
+      <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="20" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+      <c r="B12" s="19">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
+      <c r="B14" s="19">
         <v>9</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="20" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="20" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
+      <c r="B16" s="19">
         <v>10</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="20" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
+      <c r="B18" s="19">
         <v>11</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="20" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1297,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,151 +1303,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+      <c r="B4" s="19">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="23"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
+      <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
+      <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+      <c r="B12" s="19">
         <v>8</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="22" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
+      <c r="B14" s="19">
         <v>9</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="23" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
+      <c r="B16" s="19">
         <v>10</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="22" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
+      <c r="B18" s="19">
         <v>11</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="15" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
